--- a/files/training_data.xlsx
+++ b/files/training_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipechagas/repo/personal/TrainingDataGenAI_AP/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E8FD68-D796-6E4C-88FA-0D6A7AB25DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00406131-A7C1-C141-8335-675116C118BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>question</t>
   </si>
@@ -29,81 +29,6 @@
   </si>
   <si>
     <t>agent_id</t>
-  </si>
-  <si>
-    <t>Liste os documentos de pagamentos para empresa 1000 na moeda local</t>
-  </si>
-  <si>
-    <t>SELECT AP.AccountingDocumentNumber_BELNR, SUM(AP.AmountInLocalCurrency_DMBTR) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.IsInvoice = FALSE GROUP BY AP.AccountingDocumentNumber_BELNR</t>
-  </si>
-  <si>
-    <t>accountpayables</t>
-  </si>
-  <si>
-    <t>Liste os pagamentos para empresa 1000 na moeda local</t>
-  </si>
-  <si>
-    <t>Liste os documentos de pagamentos efetuados com a forma de pagamento Z entre 01/01/2015 e 31/01/2015 da empresa 1000</t>
-  </si>
-  <si>
-    <t>SELECT AP.AccountingDocumentNumber_BELNR, SUM(AP.AmountInLocalCurrency_DMBTR) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.ClearingDate_AUGDT BETWEEN '2015-01-01' AND '2015-01-31' AND AP.TermsOfPaymentKey_ZTERM = 'Z' AND AP.IsInvoice = FALSE GROUP BY AP.AccountingDocumentNumber_BELNR</t>
-  </si>
-  <si>
-    <t>Liste os documentos pagos após o vencimento entre 01/01/2015 e 31/01/2015 da empresa 1000  demostre a data de compensacao e data de vencimento</t>
-  </si>
-  <si>
-    <t>SELECT AccountsPayable_GenIA.AccountingDocumentNumber_BELNR, AccountsPayable_GenIA.ClearingDate_AUGDT, AccountsPayable_GenIA.NetDueDate FROM `prj-hol-dsv-data-gold-bsi-cple`.cortex.AccountsPayable_GenIA WHERE AccountsPayable_GenIA.CompanyCode_BUKRS = '1000' AND AccountsPayable_GenIA.ClearingDate_AUGDT BETWEEN '2015-01-01' AND '2015-01-31' AND AccountsPayable_GenIA.NetDueDate &lt; AccountsPayable_GenIA.ClearingDate_AUGDT</t>
-  </si>
-  <si>
-    <t>Total de pagamentos a pagar para empresa 1000 na moeda da empresa</t>
-  </si>
-  <si>
-    <t>SELECT SUM(AP.AmountInLocalCurrency_DMBTR) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.IsInvoice = FALSE</t>
-  </si>
-  <si>
-    <t>Total de faturas a pagar para empresa 1000 na moeda local</t>
-  </si>
-  <si>
-    <t>SELECT SUM(AP.AmountInLocalCurrency_DMBTR * -1) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.IsInvoice = TRUE</t>
-  </si>
-  <si>
-    <t>Total de faturas a pagar para empresa 1000 na moeda da empresa</t>
-  </si>
-  <si>
-    <t>Quais foram os 5 maiores fornecedores da empresa 1000 considere faturas</t>
-  </si>
-  <si>
-    <t>SELECT AP.NAME1, AP.AccountNumberOfVendorOrCreditor_LIFNR, SUM(AP.AmountInLocalCurrency_DMBTR * -1) FROM `ce-sap-latam-genai.cortex_sap_reporting.AccountsPayableGenAI` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.IsInvoice = TRUE GROUP BY AP.NAME1, AP.AccountNumberOfVendorOrCreditor_LIFNR, AP.AmountInLocalCurrency_DMBTR ORDER BY  AP.AmountInLocalCurrency_DMBTR DESC LIMIT 5</t>
-  </si>
-  <si>
-    <t>Liste os documentos em aberto em moeda local com a forma de pagamento Z entre 01/01/2015 e 31/01/2015 da empresa 1000</t>
-  </si>
-  <si>
-    <t>SELECT AP.AccountingDocumentNumber_BELNR, SUM(AP.AmountInLocalCurrency_DMBTR) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.TermsOfPaymentKey_ZTERM = 'Z' AND AP.IsInvoice = TRUE AND AP.PostingDateInTheDocument_BUDAT BETWEEN '2015-01-01' AND '2015-01-31' AND AP.ClearingDate_AUGDT is null GROUP BY AP.AccountingDocumentNumber_BELNR</t>
-  </si>
-  <si>
-    <t>o que tenho a pagar hoje na empresa 1000</t>
-  </si>
-  <si>
-    <t>SELECT AP.AccountingDocumentNumber_BELNR, AP.CompanyCode_BUKRS, AP.FiscalYear_GJAHR, AP.AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.NetDueDate = CURRENT_DATE() AND AP.ClearingDate_AUGDT is null</t>
-  </si>
-  <si>
-    <t>qual o percentual e montante total de pagamentos manuais ocorridos entre 01/01/2015 e 31/01/2015 na empresa 1000</t>
-  </si>
-  <si>
-    <t>SELECT SAFE_DIVIDE(sum(CASE WHEN IsManualPayment = TRUE THEN AmountInLocalCurrency_DMBTR ELSE 0 END) * 100 , sum(CASE WHEN IsManualPayment is not null THEN AmountInLocalCurrency_DMBTR ELSE 0 END)) AS percentual_manual_payments, sum(CASE WHEN IsManualPayment = TRUE THEN AmountInLocalCurrency_DMBTR ELSE 0 END) * -1 AS total_manual_payments FROM `prj-hol-dsv-data-gold-bsi-cple`.cortex.AccountsPayable_GenIA WHERE CompanyCode_BUKRS = '1100' AND PostingDateInTheDocument_BUDAT BETWEEN '2015-01-01' AND '2015-12-31'</t>
-  </si>
-  <si>
-    <t>Qual o montante total vencido e n√£o pagos na empresa 1000?</t>
-  </si>
-  <si>
-    <t>SELECT SUM(AP.AmountInLocalCurrency_DMBTR) AS AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` AS AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.NetDueDate &lt; CURRENT_DATE() AND AP.ClearingDate_AUGDT IS NULL</t>
-  </si>
-  <si>
-    <t>quais foram os 5 maiores fornecedores da empresa 1000 entre 01/01/2015 e 31/01/2015 em moeda da empresa considerando faturas</t>
-  </si>
-  <si>
-    <t>SELECT AP.NAME1, AP.AccountNumberOfVendorOrCreditor_LIFNR, SUM(AP.AmountInLocalCurrency_DMBTR * -1) as AmountInLocalCurrency_DMBTR FROM `prj-hol-dsv-data-gold-bsi-cple.cortex.AccountsPayable_GenIA` as AP WHERE AP.CompanyCode_BUKRS = '1000' AND AP.PostingDateInTheDocument_BUDAT BETWEEN '2015-01-01' AND '2015-01-31' AND AP.IsInvoice = TRUE GROUP BY 1, 2 ORDER BY SUM(AP.AmountInLocalCurrency_DMBTR * -1) DESC LIMIT 5</t>
   </si>
 </sst>
 </file>
@@ -397,7 +322,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -418,148 +343,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="56">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="56">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="56">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="56">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="70">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="56">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:3" ht="13">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="13">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="13">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="13">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="13">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="13">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="13">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="13">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="13">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="13">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="13">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="13">
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="4"/>
